--- a/data/trans_bre/P38B-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P38B-Clase-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>5.205128936501846</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4.03846919287949</v>
+        <v>4.038469192879502</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.01757558517957667</v>
@@ -627,7 +627,7 @@
         <v>0.06078278951333126</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04732587869089259</v>
+        <v>0.04732587869089273</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.239129583767774</v>
+        <v>-3.445456615505244</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3938710468076582</v>
+        <v>-0.2042378046564235</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.4954621385434383</v>
+        <v>-0.7602257196824806</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.03521888186030424</v>
+        <v>-0.03792990200333838</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.004390042514895908</v>
+        <v>-0.002314468677021848</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.005674533912783295</v>
+        <v>-0.007991990048955339</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.28369330402884</v>
+        <v>6.072557765410354</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.681830278053583</v>
+        <v>9.849518504652645</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.421149530165909</v>
+        <v>8.363692370857004</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.07216673128281655</v>
+        <v>0.0708364541496411</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1173977059638149</v>
+        <v>0.1191307207407279</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1021373411969284</v>
+        <v>0.1013906385641676</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>1.282432836505221</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2.094836783109666</v>
+        <v>2.094836783109677</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.008079798648761887</v>
@@ -709,7 +709,7 @@
         <v>0.01470844115382719</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02441038652280543</v>
+        <v>0.02441038652280556</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.403103737000227</v>
+        <v>-3.899416469859138</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.559112691405812</v>
+        <v>-3.863116399179944</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.995716408663105</v>
+        <v>-2.835028967242343</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.03709140598246922</v>
+        <v>-0.0421840899399483</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.04040665448187647</v>
+        <v>-0.04246734821524969</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.03285232767291614</v>
+        <v>-0.03153604859624717</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.113383378481896</v>
+        <v>4.966568064229945</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>5.704399134646254</v>
+        <v>5.792855021407178</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.777470423332896</v>
+        <v>7.395394479007209</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.05806597008357215</v>
+        <v>0.05596836385642567</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.06708009046825829</v>
+        <v>0.06870925489710854</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08218123289179712</v>
+        <v>0.08963217091387422</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>2.262319113137845</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5.167890607823722</v>
+        <v>5.167890607823756</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.07776426371001591</v>
@@ -791,7 +791,7 @@
         <v>0.02611910966044621</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05966090075804237</v>
+        <v>0.05966090075804276</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.181957513927159</v>
+        <v>2.080230986912563</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.1479093894364</v>
+        <v>-3.754085748252256</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2958754061225674</v>
+        <v>-0.6247541372502482</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.02541305991271758</v>
+        <v>0.02426835564475454</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.04628073602970561</v>
+        <v>-0.04267552966651267</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002988865762294951</v>
+        <v>-0.006117657942710172</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.49550890044499</v>
+        <v>11.05076557766269</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.30639617757143</v>
+        <v>7.714396877401347</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.948936800428825</v>
+        <v>9.610604369976038</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.1392594775510267</v>
+        <v>0.1331037503722445</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.08590525136936687</v>
+        <v>0.0901096868461162</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1173176326388446</v>
+        <v>0.1154188192705181</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>1.342847538780989</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7.203987877404927</v>
+        <v>7.203987877404905</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.02192155531594453</v>
@@ -873,7 +873,7 @@
         <v>0.01591263714932366</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08804594265220282</v>
+        <v>0.08804594265220256</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.792092079670263</v>
+        <v>-1.684212019769478</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.842269368473174</v>
+        <v>-2.056873006701001</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.567678496400759</v>
+        <v>3.834145436438701</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.02090900836335336</v>
+        <v>-0.01987932662266695</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02157118534046901</v>
+        <v>-0.02426849538912857</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04300010491271641</v>
+        <v>0.04539878389603449</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.094905385023287</v>
+        <v>4.9706013680738</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.637668760906379</v>
+        <v>4.656873737125222</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.6945688394533</v>
+        <v>10.56280403766488</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.06124978943618993</v>
+        <v>0.05957420343114042</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05586605383823486</v>
+        <v>0.05588258015504071</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1356147241437051</v>
+        <v>0.1315834519214149</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>6.512631804887691</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12.58349295757464</v>
+        <v>12.58349295757465</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.1178850271752425</v>
@@ -955,7 +955,7 @@
         <v>0.08080033883317224</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1646156728811515</v>
+        <v>0.1646156728811516</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.083805446113776</v>
+        <v>5.51330191143999</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.844125293889889</v>
+        <v>2.255950496522928</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.957199871486567</v>
+        <v>8.214305264544436</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.06100588769698684</v>
+        <v>0.06605392306039753</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.03437716270070276</v>
+        <v>0.02771634272240197</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09876909191881136</v>
+        <v>0.1021815723505071</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.43345377234612</v>
+        <v>13.65868267894436</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.67361186676669</v>
+        <v>10.81380939990331</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17.1428541233686</v>
+        <v>17.15862430102863</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.1747632646606198</v>
+        <v>0.1777707443706834</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1365982386772432</v>
+        <v>0.1378171988731062</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2351911142575115</v>
+        <v>0.2384079202881217</v>
       </c>
     </row>
     <row r="19">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>34.71464299133086</v>
+        <v>34.09032966587731</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>27.28402769446524</v>
+        <v>26.78656509263154</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28.09939410424499</v>
+        <v>27.91432166193749</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.701705930462921</v>
+        <v>0.6752779703006797</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4642230360133532</v>
+        <v>0.4473712976087079</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5445910251634188</v>
+        <v>0.5538570874737856</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>47.25413141567604</v>
+        <v>46.8490851180755</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>39.97764422219444</v>
+        <v>39.22559397395379</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>48.01147885959647</v>
+        <v>48.68047261377393</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.264174722045976</v>
+        <v>1.232905213804008</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8500949446814852</v>
+        <v>0.8250837078031666</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.48942755809201</v>
+        <v>1.522150277352823</v>
       </c>
     </row>
     <row r="22">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.951278689503714</v>
+        <v>3.924106285255571</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.768496406633005</v>
+        <v>3.711523353896395</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.867310628603459</v>
+        <v>4.867297068611339</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.04773087119986735</v>
+        <v>0.04732093062902393</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.04543607763419185</v>
+        <v>0.04477581216199292</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06011709568087177</v>
+        <v>0.05972896596137558</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.351081669581007</v>
+        <v>7.407892086165973</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.297865039457843</v>
+        <v>7.12587191857506</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.10769681338089</v>
+        <v>8.998834316538213</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.09076554079108373</v>
+        <v>0.09181800675304561</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.09051068613819889</v>
+        <v>0.08838588766518207</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1162480450386599</v>
+        <v>0.1148325156498578</v>
       </c>
     </row>
     <row r="25">
